--- a/Poland CIT Return-8o-13_en.xlsx
+++ b/Poland CIT Return-8o-13_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\Documents\python\Microsimulation\Microsimulation_Poland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb544155\OneDrive - WBG\Documents\GitHub\Microsimulation_Poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A056C4C4-8A87-4B3A-BE20-738269D270B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A056C4C4-8A87-4B3A-BE20-738269D270B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{903433A0-C271-49FE-A318-B55A15371DA5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -4994,6 +4994,123 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5002,6 +5119,288 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5033,405 +5432,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6089,954 +6089,954 @@
       <selection activeCell="Q10" sqref="Q10:T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" customWidth="1"/>
-    <col min="7" max="7" width="2.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="3" max="3" width="5.796875" customWidth="1"/>
+    <col min="4" max="4" width="2.19921875" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" customWidth="1"/>
+    <col min="6" max="6" width="1.09765625" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
-    <col min="12" max="12" width="2.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.69921875" customWidth="1"/>
+    <col min="10" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="11" width="5.796875" customWidth="1"/>
+    <col min="12" max="12" width="2.19921875" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="4.69921875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.296875" customWidth="1"/>
+    <col min="17" max="17" width="4.69921875" customWidth="1"/>
+    <col min="18" max="18" width="3.296875" customWidth="1"/>
+    <col min="19" max="19" width="4.69921875" customWidth="1"/>
+    <col min="20" max="20" width="3.296875" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="5.77734375" customWidth="1"/>
-    <col min="23" max="24" width="2.21875" customWidth="1"/>
+    <col min="22" max="22" width="5.796875" customWidth="1"/>
+    <col min="23" max="24" width="2.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="22" t="s">
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:24" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="157"/>
+    </row>
+    <row r="2" spans="1:24" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-    </row>
-    <row r="3" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+    </row>
+    <row r="3" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+    </row>
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-    </row>
-    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="162"/>
+    </row>
+    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-    </row>
-    <row r="6" spans="1:24" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="165"/>
+    </row>
+    <row r="6" spans="1:24" ht="49.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-    </row>
-    <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
-    </row>
-    <row r="8" spans="1:24" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="1:24" ht="22.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
-    </row>
-    <row r="9" spans="1:24" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="154"/>
+    </row>
+    <row r="9" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="45" t="s">
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-    </row>
-    <row r="10" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49" t="s">
+      <c r="V9" s="26"/>
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="52" t="s">
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
-    </row>
-    <row r="11" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="53"/>
-      <c r="W11" s="54"/>
-    </row>
-    <row r="12" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49" t="s">
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="52" t="s">
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
-    </row>
-    <row r="13" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49" t="s">
+      <c r="V12" s="29"/>
+      <c r="W12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="52" t="s">
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-    </row>
-    <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45" t="s">
+      <c r="V13" s="29"/>
+      <c r="W13" s="30"/>
+    </row>
+    <row r="14" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="52" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="52" t="s">
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-    </row>
-    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="52" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="52" t="s">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="53"/>
-      <c r="W15" s="54"/>
-    </row>
-    <row r="16" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="52" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="52" t="s">
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="53"/>
-      <c r="W16" s="54"/>
-    </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="29"/>
+      <c r="W16" s="30"/>
+    </row>
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="52" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
-    </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="29"/>
+      <c r="W17" s="30"/>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="52" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="53"/>
-      <c r="W18" s="54"/>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="29"/>
+      <c r="W18" s="30"/>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="52" t="s">
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="V19" s="53"/>
-      <c r="W19" s="54"/>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
+    </row>
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="52" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="52" t="s">
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="V20" s="53"/>
-      <c r="W20" s="54"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="29"/>
+      <c r="W20" s="30"/>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="52" t="s">
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="V21" s="53"/>
-      <c r="W21" s="54"/>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49" t="s">
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="52" t="s">
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="54"/>
-    </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49" t="s">
+      <c r="V22" s="29"/>
+      <c r="W22" s="30"/>
+    </row>
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="52" t="s">
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="53"/>
-      <c r="W23" s="54"/>
-    </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49" t="s">
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
+    </row>
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="52" t="s">
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="V24" s="53"/>
-      <c r="W24" s="54"/>
-    </row>
-    <row r="25" spans="1:23" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="45" t="s">
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
+    </row>
+    <row r="25" spans="1:23" ht="32.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="52" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="52" t="s">
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="53"/>
-      <c r="W25" s="54"/>
-    </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49" t="s">
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
+    </row>
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="52" t="s">
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="V26" s="53"/>
-      <c r="W26" s="54"/>
-    </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49" t="s">
+      <c r="V26" s="29"/>
+      <c r="W26" s="30"/>
+    </row>
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="52" t="s">
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="V27" s="53"/>
-      <c r="W27" s="54"/>
-    </row>
-    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49" t="s">
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
+    </row>
+    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="52" t="s">
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
-    </row>
-    <row r="29" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="49" t="s">
+      <c r="V28" s="29"/>
+      <c r="W28" s="30"/>
+    </row>
+    <row r="29" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
+      <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="52" t="s">
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="V29" s="53"/>
-      <c r="W29" s="54"/>
-    </row>
-    <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="58" t="s">
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
+    </row>
+    <row r="30" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="61" t="s">
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="W30" s="62"/>
-    </row>
-    <row r="31" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="49" t="s">
+      <c r="W30" s="24"/>
+    </row>
+    <row r="31" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
       <c r="Q31" s="64">
         <v>47</v>
       </c>
       <c r="R31" s="65"/>
-      <c r="S31" s="66" t="s">
+      <c r="S31" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T31" s="67"/>
+      <c r="T31" s="144"/>
       <c r="U31" s="5">
         <v>48</v>
       </c>
@@ -7045,33 +7045,33 @@
       </c>
       <c r="W31" s="7"/>
     </row>
-    <row r="32" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
       <c r="Q32" s="64">
         <v>49</v>
       </c>
       <c r="R32" s="65"/>
-      <c r="S32" s="66" t="s">
+      <c r="S32" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="67"/>
+      <c r="T32" s="144"/>
       <c r="U32" s="5">
         <v>50</v>
       </c>
@@ -7080,153 +7080,153 @@
       </c>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="68" t="s">
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="71">
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="75">
         <v>51</v>
       </c>
-      <c r="R33" s="72"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="74"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="147"/>
       <c r="U33" s="8">
         <v>52</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="9"/>
     </row>
-    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="80" t="s">
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="81"/>
+      <c r="T34" s="151"/>
       <c r="U34" s="11"/>
       <c r="V34" s="12" t="s">
         <v>77</v>
       </c>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="68" t="s">
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="71">
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="75">
         <v>53</v>
       </c>
-      <c r="R35" s="72"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="74"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="147"/>
       <c r="U35" s="8">
         <v>54</v>
       </c>
       <c r="V35" s="10"/>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="80" t="s">
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T36" s="81"/>
+      <c r="T36" s="151"/>
       <c r="U36" s="11"/>
       <c r="V36" s="12" t="s">
         <v>77</v>
       </c>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49" t="s">
+    <row r="37" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
       <c r="Q37" s="64">
         <v>55</v>
       </c>
       <c r="R37" s="65"/>
-      <c r="S37" s="66" t="s">
+      <c r="S37" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T37" s="67"/>
+      <c r="T37" s="144"/>
       <c r="U37" s="5">
         <v>56</v>
       </c>
@@ -7235,93 +7235,93 @@
       </c>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="71">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="75">
         <v>57</v>
       </c>
-      <c r="R38" s="72"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="147"/>
       <c r="U38" s="8">
         <v>58</v>
       </c>
       <c r="V38" s="10"/>
       <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="80" t="s">
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T39" s="81"/>
+      <c r="T39" s="151"/>
       <c r="U39" s="11"/>
       <c r="V39" s="12" t="s">
         <v>77</v>
       </c>
       <c r="W39" s="13"/>
     </row>
-    <row r="40" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="64">
         <v>59</v>
       </c>
       <c r="R40" s="65"/>
-      <c r="S40" s="66" t="s">
+      <c r="S40" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T40" s="67"/>
+      <c r="T40" s="144"/>
       <c r="U40" s="5">
         <v>60</v>
       </c>
@@ -7330,35 +7330,35 @@
       </c>
       <c r="W40" s="7"/>
     </row>
-    <row r="41" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="47"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="64">
         <v>61</v>
       </c>
       <c r="R41" s="65"/>
-      <c r="S41" s="66" t="s">
+      <c r="S41" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T41" s="67"/>
+      <c r="T41" s="144"/>
       <c r="U41" s="5">
         <v>62</v>
       </c>
@@ -7368,32 +7368,32 @@
       <c r="W41" s="7"/>
     </row>
     <row r="42" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="45" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
       <c r="Q42" s="64">
         <v>63</v>
       </c>
       <c r="R42" s="65"/>
-      <c r="S42" s="85" t="s">
+      <c r="S42" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="T42" s="86"/>
+      <c r="T42" s="146"/>
       <c r="U42" s="5">
         <v>64</v>
       </c>
@@ -7402,93 +7402,93 @@
       </c>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="68" t="s">
+    <row r="43" spans="1:23" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="71">
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75">
         <v>65</v>
       </c>
-      <c r="R43" s="72"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="74"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="147"/>
       <c r="U43" s="8">
         <v>66</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="1:23" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="80" t="s">
+    <row r="44" spans="1:23" ht="12.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="T44" s="81"/>
+      <c r="T44" s="151"/>
       <c r="U44" s="11"/>
       <c r="V44" s="12" t="s">
         <v>77</v>
       </c>
       <c r="W44" s="13"/>
     </row>
-    <row r="45" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="45" t="s">
+    <row r="45" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="47"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
       <c r="Q45" s="64">
         <v>67</v>
       </c>
       <c r="R45" s="65"/>
-      <c r="S45" s="66" t="s">
+      <c r="S45" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T45" s="67"/>
+      <c r="T45" s="144"/>
       <c r="U45" s="5">
         <v>68</v>
       </c>
@@ -7497,35 +7497,35 @@
       </c>
       <c r="W45" s="7"/>
     </row>
-    <row r="46" spans="1:23" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="45" t="s">
+    <row r="46" spans="1:23" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="33" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="35"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="51"/>
       <c r="Q46" s="64">
         <v>70</v>
       </c>
       <c r="R46" s="65"/>
-      <c r="S46" s="66" t="s">
+      <c r="S46" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="T46" s="67"/>
+      <c r="T46" s="144"/>
       <c r="U46" s="5">
         <v>71</v>
       </c>
@@ -7535,32 +7535,32 @@
       <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="47"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="64">
         <v>72</v>
       </c>
       <c r="R47" s="65"/>
-      <c r="S47" s="85" t="s">
+      <c r="S47" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="T47" s="86"/>
+      <c r="T47" s="146"/>
       <c r="U47" s="5">
         <v>73</v>
       </c>
@@ -7569,2710 +7569,2956 @@
       </c>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+    <row r="48" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="47"/>
-    </row>
-    <row r="49" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="87" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="27"/>
+    </row>
+    <row r="49" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="89"/>
-    </row>
-    <row r="50" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
-      <c r="B50" s="90" t="s">
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="124"/>
+      <c r="U49" s="124"/>
+      <c r="V49" s="124"/>
+      <c r="W49" s="125"/>
+    </row>
+    <row r="50" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="44"/>
+      <c r="B50" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93" t="s">
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="93" t="s">
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="L50" s="94"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="93" t="s">
+      <c r="L50" s="130"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="O50" s="94"/>
+      <c r="O50" s="130"/>
       <c r="P50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q50" s="96" t="s">
+      <c r="Q50" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="R50" s="97"/>
-      <c r="S50" s="97"/>
-      <c r="T50" s="97"/>
-      <c r="U50" s="97"/>
-      <c r="V50" s="97"/>
-      <c r="W50" s="98"/>
-    </row>
-    <row r="51" spans="1:23" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="71">
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="133"/>
+      <c r="W50" s="134"/>
+    </row>
+    <row r="51" spans="1:23" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="75">
         <v>74</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="71">
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="75">
         <v>75</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="100" t="s">
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K51" s="71">
+      <c r="K51" s="75">
         <v>76</v>
       </c>
-      <c r="L51" s="72"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="71">
+      <c r="L51" s="76"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="75">
         <v>77</v>
       </c>
-      <c r="O51" s="72"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="44"/>
-    </row>
-    <row r="52" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="33"/>
+    </row>
+    <row r="52" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
       <c r="B52" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C52" s="106"/>
       <c r="D52" s="106"/>
       <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="110" t="s">
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L52" s="111"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="110" t="s">
+      <c r="L52" s="79"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O52" s="111"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="103"/>
-      <c r="S52" s="103"/>
-      <c r="T52" s="103"/>
-      <c r="U52" s="103"/>
-      <c r="V52" s="103"/>
-      <c r="W52" s="104"/>
-    </row>
-    <row r="53" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="71">
+      <c r="O52" s="79"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="112"/>
+      <c r="S52" s="112"/>
+      <c r="T52" s="112"/>
+      <c r="U52" s="112"/>
+      <c r="V52" s="112"/>
+      <c r="W52" s="113"/>
+    </row>
+    <row r="53" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="75">
         <v>78</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="71">
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="75">
         <v>79</v>
       </c>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="100" t="s">
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K53" s="71">
+      <c r="K53" s="75">
         <v>80</v>
       </c>
-      <c r="L53" s="72"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="71">
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="75">
         <v>81</v>
       </c>
-      <c r="O53" s="72"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
-      <c r="V53" s="103"/>
-      <c r="W53" s="104"/>
-    </row>
-    <row r="54" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="112"/>
+      <c r="S53" s="112"/>
+      <c r="T53" s="112"/>
+      <c r="U53" s="112"/>
+      <c r="V53" s="112"/>
+      <c r="W53" s="113"/>
+    </row>
+    <row r="54" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
       <c r="B54" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C54" s="106"/>
       <c r="D54" s="106"/>
       <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="110" t="s">
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="111"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="110" t="s">
+      <c r="L54" s="79"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O54" s="111"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="103"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="103"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="104"/>
-    </row>
-    <row r="55" spans="1:23" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="71">
+      <c r="O54" s="79"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="112"/>
+      <c r="S54" s="112"/>
+      <c r="T54" s="112"/>
+      <c r="U54" s="112"/>
+      <c r="V54" s="112"/>
+      <c r="W54" s="113"/>
+    </row>
+    <row r="55" spans="1:23" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="75">
         <v>82</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="71">
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="75">
         <v>83</v>
       </c>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="100" t="s">
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K55" s="75">
         <v>84</v>
       </c>
-      <c r="L55" s="72"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="71">
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="75">
         <v>85</v>
       </c>
-      <c r="O55" s="72"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="103"/>
-      <c r="S55" s="103"/>
-      <c r="T55" s="103"/>
-      <c r="U55" s="103"/>
-      <c r="V55" s="103"/>
-      <c r="W55" s="104"/>
-    </row>
-    <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="113"/>
+    </row>
+    <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
       <c r="B56" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="106"/>
       <c r="D56" s="106"/>
       <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="110" t="s">
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L56" s="111"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="110" t="s">
+      <c r="L56" s="79"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O56" s="111"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="102"/>
-      <c r="R56" s="103"/>
-      <c r="S56" s="103"/>
-      <c r="T56" s="103"/>
-      <c r="U56" s="103"/>
-      <c r="V56" s="103"/>
-      <c r="W56" s="104"/>
-    </row>
-    <row r="57" spans="1:23" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="71">
+      <c r="O56" s="79"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="113"/>
+    </row>
+    <row r="57" spans="1:23" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="75">
         <v>86</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="71">
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="75">
         <v>87</v>
       </c>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="100" t="s">
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="71">
+      <c r="K57" s="75">
         <v>88</v>
       </c>
-      <c r="L57" s="72"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="71">
+      <c r="L57" s="76"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="75">
         <v>89</v>
       </c>
-      <c r="O57" s="72"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="103"/>
-      <c r="T57" s="103"/>
-      <c r="U57" s="103"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="104"/>
-    </row>
-    <row r="58" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="113"/>
+    </row>
+    <row r="58" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
       <c r="B58" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="106"/>
       <c r="D58" s="106"/>
       <c r="E58" s="107"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="110" t="s">
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L58" s="111"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="110" t="s">
+      <c r="L58" s="79"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="111"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="84"/>
-    </row>
-    <row r="59" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="71">
+      <c r="O58" s="79"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="48"/>
+    </row>
+    <row r="59" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="75">
         <v>90</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="71">
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="75">
         <v>91</v>
       </c>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="100" t="s">
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K59" s="71">
+      <c r="K59" s="75">
         <v>92</v>
       </c>
-      <c r="L59" s="72"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="71">
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="75">
         <v>93</v>
       </c>
-      <c r="O59" s="72"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="71">
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="75">
         <v>94</v>
       </c>
-      <c r="R59" s="72"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="115"/>
-      <c r="W59" s="117" t="s">
+      <c r="R59" s="76"/>
+      <c r="S59" s="103"/>
+      <c r="T59" s="103"/>
+      <c r="U59" s="103"/>
+      <c r="V59" s="103"/>
+      <c r="W59" s="138" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+    <row r="60" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45"/>
       <c r="B60" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C60" s="106"/>
       <c r="D60" s="106"/>
       <c r="E60" s="107"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="110" t="s">
+      <c r="F60" s="90"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L60" s="111"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="110" t="s">
+      <c r="L60" s="79"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O60" s="111"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="113"/>
-      <c r="R60" s="114"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="118"/>
-    </row>
-    <row r="61" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87" t="s">
+      <c r="O60" s="79"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="141"/>
+      <c r="S60" s="142"/>
+      <c r="T60" s="142"/>
+      <c r="U60" s="142"/>
+      <c r="V60" s="142"/>
+      <c r="W60" s="139"/>
+    </row>
+    <row r="61" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="89"/>
-    </row>
-    <row r="62" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
-      <c r="B62" s="90" t="s">
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="124"/>
+      <c r="O61" s="124"/>
+      <c r="P61" s="124"/>
+      <c r="Q61" s="124"/>
+      <c r="R61" s="124"/>
+      <c r="S61" s="124"/>
+      <c r="T61" s="124"/>
+      <c r="U61" s="124"/>
+      <c r="V61" s="124"/>
+      <c r="W61" s="125"/>
+    </row>
+    <row r="62" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="44"/>
+      <c r="B62" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="93" t="s">
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="93" t="s">
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="94"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="93" t="s">
+      <c r="L62" s="130"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="O62" s="94"/>
+      <c r="O62" s="130"/>
       <c r="P62" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q62" s="96" t="s">
+      <c r="Q62" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="97"/>
-      <c r="V62" s="97"/>
-      <c r="W62" s="98"/>
-    </row>
-    <row r="63" spans="1:23" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="71">
+      <c r="R62" s="133"/>
+      <c r="S62" s="133"/>
+      <c r="T62" s="133"/>
+      <c r="U62" s="133"/>
+      <c r="V62" s="133"/>
+      <c r="W62" s="134"/>
+    </row>
+    <row r="63" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="75">
         <v>95</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="71">
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="75">
         <v>96</v>
       </c>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="100" t="s">
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="71">
+      <c r="K63" s="75">
         <v>97</v>
       </c>
-      <c r="L63" s="72"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="71">
+      <c r="L63" s="76"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="75">
         <v>98</v>
       </c>
-      <c r="O63" s="72"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="44"/>
-    </row>
-    <row r="64" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="33"/>
+    </row>
+    <row r="64" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
       <c r="B64" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="106"/>
       <c r="D64" s="106"/>
       <c r="E64" s="107"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="110" t="s">
+      <c r="F64" s="90"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L64" s="111"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="110" t="s">
+      <c r="L64" s="79"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O64" s="111"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="103"/>
-      <c r="S64" s="103"/>
-      <c r="T64" s="103"/>
-      <c r="U64" s="103"/>
-      <c r="V64" s="103"/>
-      <c r="W64" s="104"/>
-    </row>
-    <row r="65" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="71">
+      <c r="O64" s="79"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="112"/>
+      <c r="S64" s="112"/>
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="112"/>
+      <c r="W64" s="113"/>
+    </row>
+    <row r="65" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="75">
         <v>99</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="71">
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="75">
         <v>100</v>
       </c>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="100" t="s">
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K65" s="75">
         <v>101</v>
       </c>
-      <c r="L65" s="72"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="71">
+      <c r="L65" s="76"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="75">
         <v>102</v>
       </c>
-      <c r="O65" s="72"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="103"/>
-      <c r="S65" s="103"/>
-      <c r="T65" s="103"/>
-      <c r="U65" s="103"/>
-      <c r="V65" s="103"/>
-      <c r="W65" s="104"/>
-    </row>
-    <row r="66" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="113"/>
+    </row>
+    <row r="66" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
       <c r="B66" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="106"/>
       <c r="D66" s="106"/>
       <c r="E66" s="107"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="101"/>
-      <c r="K66" s="110" t="s">
+      <c r="F66" s="90"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L66" s="111"/>
-      <c r="M66" s="112"/>
-      <c r="N66" s="110" t="s">
+      <c r="L66" s="79"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O66" s="111"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="103"/>
-      <c r="S66" s="103"/>
-      <c r="T66" s="103"/>
-      <c r="U66" s="103"/>
-      <c r="V66" s="103"/>
-      <c r="W66" s="104"/>
-    </row>
-    <row r="67" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="71">
+      <c r="O66" s="79"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="112"/>
+      <c r="S66" s="112"/>
+      <c r="T66" s="112"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="113"/>
+    </row>
+    <row r="67" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44"/>
+      <c r="B67" s="75">
         <v>103</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="71">
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="75">
         <v>104</v>
       </c>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="100" t="s">
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K67" s="71">
+      <c r="K67" s="75">
         <v>105</v>
       </c>
-      <c r="L67" s="72"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="71">
+      <c r="L67" s="76"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="75">
         <v>106</v>
       </c>
-      <c r="O67" s="72"/>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="103"/>
-      <c r="S67" s="103"/>
-      <c r="T67" s="103"/>
-      <c r="U67" s="103"/>
-      <c r="V67" s="103"/>
-      <c r="W67" s="104"/>
-    </row>
-    <row r="68" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="O67" s="76"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="112"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="112"/>
+      <c r="U67" s="112"/>
+      <c r="V67" s="112"/>
+      <c r="W67" s="113"/>
+    </row>
+    <row r="68" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
       <c r="B68" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="106"/>
       <c r="D68" s="106"/>
       <c r="E68" s="107"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="101"/>
-      <c r="K68" s="110" t="s">
+      <c r="F68" s="90"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="136"/>
+      <c r="K68" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L68" s="111"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="110" t="s">
+      <c r="L68" s="79"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O68" s="111"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="103"/>
-      <c r="S68" s="103"/>
-      <c r="T68" s="103"/>
-      <c r="U68" s="103"/>
-      <c r="V68" s="103"/>
-      <c r="W68" s="104"/>
-    </row>
-    <row r="69" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="71">
+      <c r="O68" s="79"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="112"/>
+      <c r="S68" s="112"/>
+      <c r="T68" s="112"/>
+      <c r="U68" s="112"/>
+      <c r="V68" s="112"/>
+      <c r="W68" s="113"/>
+    </row>
+    <row r="69" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44"/>
+      <c r="B69" s="75">
         <v>107</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="71">
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="75">
         <v>108</v>
       </c>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="100" t="s">
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K69" s="71">
+      <c r="K69" s="75">
         <v>109</v>
       </c>
-      <c r="L69" s="72"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="71">
+      <c r="L69" s="76"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="75">
         <v>110</v>
       </c>
-      <c r="O69" s="72"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="103"/>
-      <c r="S69" s="103"/>
-      <c r="T69" s="103"/>
-      <c r="U69" s="103"/>
-      <c r="V69" s="103"/>
-      <c r="W69" s="104"/>
-    </row>
-    <row r="70" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="112"/>
+      <c r="S69" s="112"/>
+      <c r="T69" s="112"/>
+      <c r="U69" s="112"/>
+      <c r="V69" s="112"/>
+      <c r="W69" s="113"/>
+    </row>
+    <row r="70" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
       <c r="B70" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="106"/>
       <c r="D70" s="106"/>
       <c r="E70" s="107"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="101"/>
-      <c r="K70" s="110" t="s">
+      <c r="F70" s="90"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L70" s="111"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="110" t="s">
+      <c r="L70" s="79"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O70" s="111"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
-      <c r="W70" s="84"/>
-    </row>
-    <row r="71" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="71">
+      <c r="O70" s="79"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="48"/>
+    </row>
+    <row r="71" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
+      <c r="B71" s="75">
         <v>111</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="71">
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="75">
         <v>112</v>
       </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="100" t="s">
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K71" s="71">
+      <c r="K71" s="75">
         <v>113</v>
       </c>
-      <c r="L71" s="72"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="71">
+      <c r="L71" s="76"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="75">
         <v>114</v>
       </c>
-      <c r="O71" s="72"/>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="71">
+      <c r="O71" s="76"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="75">
         <v>115</v>
       </c>
-      <c r="R71" s="72"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="73"/>
+      <c r="R71" s="76"/>
+      <c r="S71" s="137"/>
+      <c r="T71" s="137"/>
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
       <c r="W71" s="9"/>
     </row>
-    <row r="72" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+    <row r="72" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45"/>
       <c r="B72" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="106"/>
       <c r="D72" s="106"/>
       <c r="E72" s="107"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="101"/>
-      <c r="K72" s="110" t="s">
+      <c r="F72" s="90"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L72" s="111"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="110" t="s">
+      <c r="L72" s="79"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O72" s="111"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="109"/>
-      <c r="S72" s="109"/>
-      <c r="T72" s="109"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
       <c r="U72" s="16"/>
       <c r="V72" s="16"/>
       <c r="W72" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
+    <row r="73" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="119"/>
-      <c r="F73" s="62"/>
-    </row>
-    <row r="74" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="87" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+    </row>
+    <row r="74" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="88"/>
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="88"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="88"/>
-      <c r="T74" s="88"/>
-      <c r="U74" s="88"/>
-      <c r="V74" s="88"/>
-      <c r="W74" s="89"/>
-    </row>
-    <row r="75" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="90" t="s">
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="124"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="124"/>
+      <c r="P74" s="124"/>
+      <c r="Q74" s="124"/>
+      <c r="R74" s="124"/>
+      <c r="S74" s="124"/>
+      <c r="T74" s="124"/>
+      <c r="U74" s="124"/>
+      <c r="V74" s="124"/>
+      <c r="W74" s="125"/>
+    </row>
+    <row r="75" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="93" t="s">
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="93" t="s">
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="L75" s="94"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="93" t="s">
+      <c r="L75" s="130"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="O75" s="94"/>
-      <c r="P75" s="95"/>
-      <c r="Q75" s="96" t="s">
+      <c r="O75" s="130"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="R75" s="97"/>
-      <c r="S75" s="97"/>
-      <c r="T75" s="97"/>
-      <c r="U75" s="97"/>
-      <c r="V75" s="97"/>
-      <c r="W75" s="98"/>
-    </row>
-    <row r="76" spans="1:23" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="71">
+      <c r="R75" s="133"/>
+      <c r="S75" s="133"/>
+      <c r="T75" s="133"/>
+      <c r="U75" s="133"/>
+      <c r="V75" s="133"/>
+      <c r="W75" s="134"/>
+    </row>
+    <row r="76" spans="1:23" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44"/>
+      <c r="B76" s="75">
         <v>116</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="71">
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="75">
         <v>117</v>
       </c>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="71">
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="75">
         <v>118</v>
       </c>
-      <c r="L76" s="72"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="71">
+      <c r="L76" s="76"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="75">
         <v>119</v>
       </c>
-      <c r="O76" s="72"/>
-      <c r="P76" s="99"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="44"/>
-    </row>
-    <row r="77" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="33"/>
+    </row>
+    <row r="77" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44"/>
       <c r="B77" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="106"/>
       <c r="D77" s="106"/>
       <c r="E77" s="107"/>
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="110" t="s">
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L77" s="111"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="110" t="s">
+      <c r="L77" s="79"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O77" s="111"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="102"/>
-      <c r="R77" s="103"/>
-      <c r="S77" s="103"/>
-      <c r="T77" s="103"/>
-      <c r="U77" s="103"/>
-      <c r="V77" s="103"/>
-      <c r="W77" s="104"/>
-    </row>
-    <row r="78" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="71">
+      <c r="O77" s="79"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="112"/>
+      <c r="T77" s="112"/>
+      <c r="U77" s="112"/>
+      <c r="V77" s="112"/>
+      <c r="W77" s="113"/>
+    </row>
+    <row r="78" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+      <c r="B78" s="75">
         <v>120</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="71">
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="75">
         <v>121</v>
       </c>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="71">
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="75">
         <v>122</v>
       </c>
-      <c r="L78" s="72"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="71">
+      <c r="L78" s="76"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="75">
         <v>123</v>
       </c>
-      <c r="O78" s="72"/>
-      <c r="P78" s="99"/>
-      <c r="Q78" s="102"/>
-      <c r="R78" s="103"/>
-      <c r="S78" s="103"/>
-      <c r="T78" s="103"/>
-      <c r="U78" s="103"/>
-      <c r="V78" s="103"/>
-      <c r="W78" s="104"/>
-    </row>
-    <row r="79" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="O78" s="76"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="112"/>
+      <c r="S78" s="112"/>
+      <c r="T78" s="112"/>
+      <c r="U78" s="112"/>
+      <c r="V78" s="112"/>
+      <c r="W78" s="113"/>
+    </row>
+    <row r="79" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44"/>
       <c r="B79" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C79" s="106"/>
       <c r="D79" s="106"/>
       <c r="E79" s="107"/>
-      <c r="F79" s="110" t="s">
+      <c r="F79" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="111"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="110" t="s">
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L79" s="111"/>
-      <c r="M79" s="112"/>
-      <c r="N79" s="110" t="s">
+      <c r="L79" s="79"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O79" s="111"/>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="103"/>
-      <c r="S79" s="103"/>
-      <c r="T79" s="103"/>
-      <c r="U79" s="103"/>
-      <c r="V79" s="103"/>
-      <c r="W79" s="104"/>
-    </row>
-    <row r="80" spans="1:23" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="71">
+      <c r="O79" s="79"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="112"/>
+      <c r="S79" s="112"/>
+      <c r="T79" s="112"/>
+      <c r="U79" s="112"/>
+      <c r="V79" s="112"/>
+      <c r="W79" s="113"/>
+    </row>
+    <row r="80" spans="1:23" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="44"/>
+      <c r="B80" s="75">
         <v>124</v>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="71">
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="75">
         <v>125</v>
       </c>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="99"/>
-      <c r="K80" s="71">
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="75">
         <v>126</v>
       </c>
-      <c r="L80" s="72"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="71">
+      <c r="L80" s="76"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="75">
         <v>127</v>
       </c>
-      <c r="O80" s="72"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="103"/>
-      <c r="S80" s="103"/>
-      <c r="T80" s="103"/>
-      <c r="U80" s="103"/>
-      <c r="V80" s="103"/>
-      <c r="W80" s="104"/>
-    </row>
-    <row r="81" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="O80" s="76"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="112"/>
+      <c r="S80" s="112"/>
+      <c r="T80" s="112"/>
+      <c r="U80" s="112"/>
+      <c r="V80" s="112"/>
+      <c r="W80" s="113"/>
+    </row>
+    <row r="81" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="44"/>
       <c r="B81" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C81" s="106"/>
       <c r="D81" s="106"/>
       <c r="E81" s="107"/>
-      <c r="F81" s="110" t="s">
+      <c r="F81" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="112"/>
-      <c r="K81" s="110" t="s">
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L81" s="111"/>
-      <c r="M81" s="112"/>
-      <c r="N81" s="110" t="s">
+      <c r="L81" s="79"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O81" s="111"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="103"/>
-      <c r="S81" s="103"/>
-      <c r="T81" s="103"/>
-      <c r="U81" s="103"/>
-      <c r="V81" s="103"/>
-      <c r="W81" s="104"/>
-    </row>
-    <row r="82" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="71">
+      <c r="O81" s="79"/>
+      <c r="P81" s="80"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
+      <c r="T81" s="112"/>
+      <c r="U81" s="112"/>
+      <c r="V81" s="112"/>
+      <c r="W81" s="113"/>
+    </row>
+    <row r="82" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44"/>
+      <c r="B82" s="75">
         <v>128</v>
       </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="71">
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="75">
         <v>129</v>
       </c>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="71">
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="75">
         <v>130</v>
       </c>
-      <c r="L82" s="72"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="71">
+      <c r="L82" s="76"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="75">
         <v>131</v>
       </c>
-      <c r="O82" s="72"/>
-      <c r="P82" s="99"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="103"/>
-      <c r="S82" s="103"/>
-      <c r="T82" s="103"/>
-      <c r="U82" s="103"/>
-      <c r="V82" s="103"/>
-      <c r="W82" s="104"/>
-    </row>
-    <row r="83" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="112"/>
+      <c r="S82" s="112"/>
+      <c r="T82" s="112"/>
+      <c r="U82" s="112"/>
+      <c r="V82" s="112"/>
+      <c r="W82" s="113"/>
+    </row>
+    <row r="83" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44"/>
       <c r="B83" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="106"/>
       <c r="D83" s="106"/>
       <c r="E83" s="107"/>
-      <c r="F83" s="110" t="s">
+      <c r="F83" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G83" s="111"/>
-      <c r="H83" s="111"/>
-      <c r="I83" s="111"/>
-      <c r="J83" s="112"/>
-      <c r="K83" s="110" t="s">
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L83" s="111"/>
-      <c r="M83" s="112"/>
-      <c r="N83" s="110" t="s">
+      <c r="L83" s="79"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="111"/>
-      <c r="P83" s="112"/>
-      <c r="Q83" s="82"/>
-      <c r="R83" s="83"/>
-      <c r="S83" s="83"/>
-      <c r="T83" s="83"/>
-      <c r="U83" s="83"/>
-      <c r="V83" s="83"/>
-      <c r="W83" s="84"/>
-    </row>
-    <row r="84" spans="1:23" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="71">
+      <c r="O83" s="79"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="48"/>
+    </row>
+    <row r="84" spans="1:23" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="44"/>
+      <c r="B84" s="75">
         <v>132</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="71">
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="75">
         <v>133</v>
       </c>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="99"/>
-      <c r="K84" s="71">
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="75">
         <v>134</v>
       </c>
-      <c r="L84" s="72"/>
-      <c r="M84" s="99"/>
-      <c r="N84" s="71">
+      <c r="L84" s="76"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="75">
         <v>135</v>
       </c>
-      <c r="O84" s="72"/>
-      <c r="P84" s="99"/>
-      <c r="Q84" s="71">
+      <c r="O84" s="76"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="75">
         <v>136</v>
       </c>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
-      <c r="V84" s="72"/>
-      <c r="W84" s="99"/>
-    </row>
-    <row r="85" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="76"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="76"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="77"/>
+    </row>
+    <row r="85" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="45"/>
       <c r="B85" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="106"/>
       <c r="D85" s="106"/>
       <c r="E85" s="107"/>
-      <c r="F85" s="110" t="s">
+      <c r="F85" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="111"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="111"/>
-      <c r="J85" s="112"/>
-      <c r="K85" s="110" t="s">
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L85" s="111"/>
-      <c r="M85" s="112"/>
-      <c r="N85" s="110" t="s">
+      <c r="L85" s="79"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="111"/>
-      <c r="P85" s="112"/>
-      <c r="Q85" s="120" t="s">
+      <c r="O85" s="79"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="R85" s="121"/>
-      <c r="S85" s="121"/>
-      <c r="T85" s="121"/>
-      <c r="U85" s="121"/>
-      <c r="V85" s="121"/>
-      <c r="W85" s="122"/>
-    </row>
-    <row r="86" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="R85" s="109"/>
+      <c r="S85" s="109"/>
+      <c r="T85" s="109"/>
+      <c r="U85" s="109"/>
+      <c r="V85" s="109"/>
+      <c r="W85" s="110"/>
+    </row>
+    <row r="86" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="43"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
-      <c r="W86" s="44"/>
-    </row>
-    <row r="87" spans="1:23" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="102"/>
-      <c r="B87" s="103"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="103"/>
-      <c r="N87" s="103"/>
-      <c r="O87" s="103"/>
-      <c r="P87" s="104"/>
-      <c r="Q87" s="123" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="33"/>
+    </row>
+    <row r="87" spans="1:23" ht="32.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="111"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="113"/>
+      <c r="Q87" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="R87" s="124"/>
-      <c r="S87" s="124"/>
-      <c r="T87" s="125"/>
-      <c r="U87" s="123" t="s">
+      <c r="R87" s="115"/>
+      <c r="S87" s="115"/>
+      <c r="T87" s="116"/>
+      <c r="U87" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="V87" s="124"/>
-      <c r="W87" s="125"/>
-    </row>
-    <row r="88" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="102"/>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="103"/>
-      <c r="N88" s="103"/>
-      <c r="O88" s="103"/>
-      <c r="P88" s="104"/>
-      <c r="Q88" s="126" t="s">
+      <c r="V87" s="115"/>
+      <c r="W87" s="116"/>
+    </row>
+    <row r="88" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="111"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="112"/>
+      <c r="M88" s="112"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="112"/>
+      <c r="P88" s="113"/>
+      <c r="Q88" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="R88" s="127"/>
-      <c r="S88" s="127"/>
-      <c r="T88" s="128"/>
-      <c r="U88" s="129" t="s">
+      <c r="R88" s="118"/>
+      <c r="S88" s="118"/>
+      <c r="T88" s="119"/>
+      <c r="U88" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="V88" s="130"/>
-      <c r="W88" s="131"/>
-    </row>
-    <row r="89" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="45" t="s">
+      <c r="V88" s="121"/>
+      <c r="W88" s="122"/>
+    </row>
+    <row r="89" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="44"/>
+      <c r="B89" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="52" t="s">
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="R89" s="53"/>
-      <c r="S89" s="53"/>
-      <c r="T89" s="54"/>
-      <c r="U89" s="52" t="s">
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="V89" s="53"/>
-      <c r="W89" s="54"/>
-    </row>
-    <row r="90" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="45" t="s">
+      <c r="V89" s="29"/>
+      <c r="W89" s="30"/>
+    </row>
+    <row r="90" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="44"/>
+      <c r="B90" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="52" t="s">
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="R90" s="53"/>
-      <c r="S90" s="53"/>
-      <c r="T90" s="54"/>
-      <c r="U90" s="52" t="s">
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="V90" s="53"/>
-      <c r="W90" s="54"/>
-    </row>
-    <row r="91" spans="1:23" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="68" t="s">
+      <c r="V90" s="29"/>
+      <c r="W90" s="30"/>
+    </row>
+    <row r="91" spans="1:23" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="44"/>
+      <c r="B91" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="69"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="69"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="71">
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="73"/>
+      <c r="O91" s="73"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="75">
         <v>141</v>
       </c>
-      <c r="R91" s="72"/>
-      <c r="S91" s="72"/>
-      <c r="T91" s="99"/>
-      <c r="U91" s="71">
+      <c r="R91" s="76"/>
+      <c r="S91" s="76"/>
+      <c r="T91" s="77"/>
+      <c r="U91" s="75">
         <v>142</v>
       </c>
-      <c r="V91" s="72"/>
-      <c r="W91" s="99"/>
-    </row>
-    <row r="92" spans="1:23" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="132" t="s">
+      <c r="V91" s="76"/>
+      <c r="W91" s="77"/>
+    </row>
+    <row r="92" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="44"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
+      <c r="J92" s="97"/>
+      <c r="K92" s="97"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="97"/>
+      <c r="N92" s="97"/>
+      <c r="O92" s="97"/>
+      <c r="P92" s="98"/>
+      <c r="Q92" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="R92" s="133"/>
-      <c r="S92" s="133"/>
-      <c r="T92" s="134"/>
-      <c r="U92" s="135" t="s">
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="95"/>
+      <c r="U92" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="V92" s="136"/>
-      <c r="W92" s="137"/>
-    </row>
-    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="45" t="s">
+      <c r="V92" s="100"/>
+      <c r="W92" s="101"/>
+    </row>
+    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44"/>
+      <c r="B93" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="52" t="s">
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R93" s="53"/>
-      <c r="S93" s="53"/>
-      <c r="T93" s="54"/>
-      <c r="U93" s="52" t="s">
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V93" s="53"/>
-      <c r="W93" s="54"/>
-    </row>
-    <row r="94" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="45" t="s">
+      <c r="V93" s="29"/>
+      <c r="W93" s="30"/>
+    </row>
+    <row r="94" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="44"/>
+      <c r="B94" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="52" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="R94" s="53"/>
-      <c r="S94" s="53"/>
-      <c r="T94" s="54"/>
-      <c r="U94" s="52" t="s">
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="30"/>
+      <c r="U94" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="V94" s="53"/>
-      <c r="W94" s="54"/>
-    </row>
-    <row r="95" spans="1:23" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="42" t="s">
+      <c r="V94" s="29"/>
+      <c r="W94" s="30"/>
+    </row>
+    <row r="95" spans="1:23" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="44"/>
+      <c r="B95" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="138" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="I95" s="115"/>
-      <c r="J95" s="115"/>
-      <c r="K95" s="115"/>
-      <c r="L95" s="115"/>
-      <c r="M95" s="115"/>
-      <c r="N95" s="115"/>
-      <c r="O95" s="115"/>
-      <c r="P95" s="139"/>
-      <c r="Q95" s="71">
+      <c r="I95" s="103"/>
+      <c r="J95" s="103"/>
+      <c r="K95" s="103"/>
+      <c r="L95" s="103"/>
+      <c r="M95" s="103"/>
+      <c r="N95" s="103"/>
+      <c r="O95" s="103"/>
+      <c r="P95" s="104"/>
+      <c r="Q95" s="75">
         <v>148</v>
       </c>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="99"/>
-      <c r="U95" s="71">
+      <c r="R95" s="76"/>
+      <c r="S95" s="76"/>
+      <c r="T95" s="77"/>
+      <c r="U95" s="75">
         <v>149</v>
       </c>
-      <c r="V95" s="72"/>
-      <c r="W95" s="99"/>
-    </row>
-    <row r="96" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
-      <c r="B96" s="140"/>
-      <c r="C96" s="141"/>
-      <c r="D96" s="141"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="141"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="108"/>
-      <c r="I96" s="109"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="109"/>
-      <c r="L96" s="109"/>
-      <c r="M96" s="109"/>
-      <c r="N96" s="109"/>
-      <c r="O96" s="109"/>
-      <c r="P96" s="143"/>
-      <c r="Q96" s="110" t="s">
+      <c r="V95" s="76"/>
+      <c r="W95" s="77"/>
+    </row>
+    <row r="96" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="44"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="91"/>
+      <c r="M96" s="91"/>
+      <c r="N96" s="91"/>
+      <c r="O96" s="91"/>
+      <c r="P96" s="92"/>
+      <c r="Q96" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="R96" s="111"/>
-      <c r="S96" s="111"/>
-      <c r="T96" s="112"/>
-      <c r="U96" s="110" t="s">
+      <c r="R96" s="79"/>
+      <c r="S96" s="79"/>
+      <c r="T96" s="80"/>
+      <c r="U96" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="V96" s="111"/>
-      <c r="W96" s="112"/>
-    </row>
-    <row r="97" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="45" t="s">
+      <c r="V96" s="79"/>
+      <c r="W96" s="80"/>
+    </row>
+    <row r="97" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="45"/>
+      <c r="B97" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="52" t="s">
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="52" t="s">
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="30"/>
+      <c r="U97" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="V97" s="53"/>
-      <c r="W97" s="54"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
+      <c r="V97" s="29"/>
+      <c r="W97" s="30"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="43"/>
-      <c r="S98" s="43"/>
-      <c r="T98" s="43"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="44"/>
-    </row>
-    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="144"/>
-      <c r="B99" s="68" t="s">
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="32"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="33"/>
+    </row>
+    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="70"/>
+      <c r="B99" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="71">
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="75">
         <v>152</v>
       </c>
-      <c r="R99" s="72"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="99"/>
-      <c r="U99" s="71">
+      <c r="R99" s="76"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="77"/>
+      <c r="U99" s="75">
         <v>153</v>
       </c>
-      <c r="V99" s="72"/>
-      <c r="W99" s="99"/>
-    </row>
-    <row r="100" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="145"/>
-      <c r="B100" s="82" t="s">
+      <c r="V99" s="76"/>
+      <c r="W99" s="77"/>
+    </row>
+    <row r="100" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="71"/>
+      <c r="B100" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="83"/>
-      <c r="L100" s="83"/>
-      <c r="M100" s="83"/>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="84"/>
-      <c r="Q100" s="132" t="s">
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
+      <c r="L100" s="47"/>
+      <c r="M100" s="47"/>
+      <c r="N100" s="47"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="R100" s="133"/>
-      <c r="S100" s="133"/>
-      <c r="T100" s="134"/>
-      <c r="U100" s="110" t="s">
+      <c r="R100" s="94"/>
+      <c r="S100" s="94"/>
+      <c r="T100" s="95"/>
+      <c r="U100" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="V100" s="111"/>
-      <c r="W100" s="112"/>
-    </row>
-    <row r="101" spans="1:23" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="s">
+      <c r="V100" s="79"/>
+      <c r="W100" s="80"/>
+    </row>
+    <row r="101" spans="1:23" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
-      <c r="N101" s="43"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
-      <c r="Q101" s="43"/>
-      <c r="R101" s="43"/>
-      <c r="S101" s="43"/>
-      <c r="T101" s="43"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
-      <c r="W101" s="44"/>
-    </row>
-    <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="144"/>
-      <c r="B102" s="68" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="33"/>
+    </row>
+    <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="70"/>
+      <c r="B102" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="71">
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="73"/>
+      <c r="O102" s="73"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="75">
         <v>154</v>
       </c>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="99"/>
-      <c r="U102" s="71">
+      <c r="R102" s="76"/>
+      <c r="S102" s="76"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="75">
         <v>155</v>
       </c>
-      <c r="V102" s="72"/>
-      <c r="W102" s="99"/>
-    </row>
-    <row r="103" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="144"/>
-      <c r="B103" s="140"/>
-      <c r="C103" s="141"/>
-      <c r="D103" s="141"/>
-      <c r="E103" s="141"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="141"/>
-      <c r="H103" s="141"/>
-      <c r="I103" s="141"/>
-      <c r="J103" s="141"/>
-      <c r="K103" s="141"/>
-      <c r="L103" s="141"/>
-      <c r="M103" s="141"/>
-      <c r="N103" s="141"/>
-      <c r="O103" s="141"/>
-      <c r="P103" s="142"/>
-      <c r="Q103" s="146" t="s">
+      <c r="V102" s="76"/>
+      <c r="W102" s="77"/>
+    </row>
+    <row r="103" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="70"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="R103" s="147"/>
-      <c r="S103" s="147"/>
-      <c r="T103" s="148"/>
-      <c r="U103" s="149" t="s">
+      <c r="R103" s="85"/>
+      <c r="S103" s="85"/>
+      <c r="T103" s="86"/>
+      <c r="U103" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="V103" s="150"/>
-      <c r="W103" s="151"/>
-    </row>
-    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="68" t="s">
+      <c r="V103" s="82"/>
+      <c r="W103" s="83"/>
+    </row>
+    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="44"/>
+      <c r="B104" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="69"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="71">
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="75">
         <v>156</v>
       </c>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="99"/>
-      <c r="U104" s="71">
+      <c r="R104" s="76"/>
+      <c r="S104" s="76"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="75">
         <v>157</v>
       </c>
-      <c r="V104" s="72"/>
-      <c r="W104" s="99"/>
-    </row>
-    <row r="105" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
-      <c r="B105" s="82" t="s">
+      <c r="V104" s="76"/>
+      <c r="W104" s="77"/>
+    </row>
+    <row r="105" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="44"/>
+      <c r="B105" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="84"/>
-      <c r="Q105" s="152" t="s">
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47"/>
+      <c r="M105" s="47"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="R105" s="153"/>
-      <c r="S105" s="153"/>
-      <c r="T105" s="154"/>
-      <c r="U105" s="149" t="s">
+      <c r="R105" s="88"/>
+      <c r="S105" s="88"/>
+      <c r="T105" s="89"/>
+      <c r="U105" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="V105" s="150"/>
-      <c r="W105" s="151"/>
-    </row>
-    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="144"/>
-      <c r="B106" s="68" t="s">
+      <c r="V105" s="82"/>
+      <c r="W105" s="83"/>
+    </row>
+    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="70"/>
+      <c r="B106" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="69"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="71">
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="75">
         <v>158</v>
       </c>
-      <c r="R106" s="72"/>
-      <c r="S106" s="72"/>
-      <c r="T106" s="99"/>
-      <c r="U106" s="71">
+      <c r="R106" s="76"/>
+      <c r="S106" s="76"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="75">
         <v>159</v>
       </c>
-      <c r="V106" s="72"/>
-      <c r="W106" s="99"/>
-    </row>
-    <row r="107" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="145"/>
-      <c r="B107" s="82" t="s">
+      <c r="V106" s="76"/>
+      <c r="W106" s="77"/>
+    </row>
+    <row r="107" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="71"/>
+      <c r="B107" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="83"/>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
-      <c r="N107" s="83"/>
-      <c r="O107" s="83"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="110" t="s">
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="47"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="48"/>
+      <c r="Q107" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="R107" s="111"/>
-      <c r="S107" s="111"/>
-      <c r="T107" s="112"/>
-      <c r="U107" s="149" t="s">
+      <c r="R107" s="79"/>
+      <c r="S107" s="79"/>
+      <c r="T107" s="80"/>
+      <c r="U107" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="V107" s="150"/>
-      <c r="W107" s="151"/>
-    </row>
-    <row r="108" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="V107" s="82"/>
+      <c r="W107" s="83"/>
+    </row>
+    <row r="108" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
-      <c r="R108" s="43"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="43"/>
-      <c r="U108" s="43"/>
-      <c r="V108" s="43"/>
-      <c r="W108" s="44"/>
-    </row>
-    <row r="109" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="33"/>
+    </row>
+    <row r="109" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="47"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="27"/>
       <c r="Q109" s="64">
         <v>160</v>
       </c>
       <c r="R109" s="65"/>
       <c r="S109" s="65"/>
       <c r="T109" s="65"/>
-      <c r="U109" s="155" t="s">
+      <c r="U109" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="V109" s="155"/>
-      <c r="W109" s="156"/>
-    </row>
-    <row r="110" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42" t="s">
+      <c r="V109" s="66"/>
+      <c r="W109" s="67"/>
+    </row>
+    <row r="110" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
-      <c r="Q110" s="43"/>
-      <c r="R110" s="43"/>
-      <c r="S110" s="43"/>
-      <c r="T110" s="43"/>
-      <c r="U110" s="43"/>
-      <c r="V110" s="43"/>
-      <c r="W110" s="44"/>
-    </row>
-    <row r="111" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="B111" s="49" t="s">
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="33"/>
+    </row>
+    <row r="111" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="44"/>
+      <c r="B111" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="50"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="50"/>
-      <c r="O111" s="50"/>
-      <c r="P111" s="51"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="42"/>
       <c r="Q111" s="64">
         <v>161</v>
       </c>
       <c r="R111" s="65"/>
       <c r="S111" s="65"/>
       <c r="T111" s="65"/>
-      <c r="U111" s="155" t="s">
+      <c r="U111" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="V111" s="155"/>
-      <c r="W111" s="156"/>
-    </row>
-    <row r="112" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="49" t="s">
+      <c r="V111" s="66"/>
+      <c r="W111" s="67"/>
+    </row>
+    <row r="112" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="45"/>
+      <c r="B112" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="50"/>
-      <c r="O112" s="50"/>
-      <c r="P112" s="51"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
+      <c r="P112" s="42"/>
       <c r="Q112" s="64">
         <v>162</v>
       </c>
       <c r="R112" s="65"/>
       <c r="S112" s="65"/>
       <c r="T112" s="65"/>
-      <c r="U112" s="155" t="s">
+      <c r="U112" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="V112" s="155"/>
-      <c r="W112" s="156"/>
-    </row>
-    <row r="113" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="57"/>
-      <c r="R113" s="58" t="s">
+      <c r="V112" s="66"/>
+      <c r="W112" s="67"/>
+    </row>
+    <row r="113" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
+      <c r="N113" s="68"/>
+      <c r="O113" s="68"/>
+      <c r="P113" s="68"/>
+      <c r="Q113" s="69"/>
+      <c r="R113" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="S113" s="59"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="60"/>
-      <c r="V113" s="61" t="s">
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="W113" s="62"/>
-    </row>
-    <row r="114" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="42" t="s">
+      <c r="W113" s="24"/>
+    </row>
+    <row r="114" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="43"/>
+      <c r="B114" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="44"/>
-      <c r="L114" s="33" t="s">
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="157" t="s">
+      <c r="M114" s="50"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="50"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="R114" s="158"/>
-      <c r="S114" s="158"/>
-      <c r="T114" s="158"/>
-      <c r="U114" s="158"/>
-      <c r="V114" s="158"/>
-      <c r="W114" s="159"/>
-    </row>
-    <row r="115" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="84"/>
-      <c r="L115" s="19" t="s">
+      <c r="R114" s="53"/>
+      <c r="S114" s="53"/>
+      <c r="T114" s="53"/>
+      <c r="U114" s="53"/>
+      <c r="V114" s="53"/>
+      <c r="W114" s="54"/>
+    </row>
+    <row r="115" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="44"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="48"/>
+      <c r="L115" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="160"/>
-      <c r="R115" s="161"/>
-      <c r="S115" s="161"/>
-      <c r="T115" s="161"/>
-      <c r="U115" s="161"/>
-      <c r="V115" s="161"/>
-      <c r="W115" s="162"/>
-    </row>
-    <row r="116" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
-      <c r="B116" s="42" t="s">
+      <c r="M115" s="59"/>
+      <c r="N115" s="59"/>
+      <c r="O115" s="59"/>
+      <c r="P115" s="60"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="56"/>
+      <c r="T115" s="56"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="56"/>
+      <c r="W115" s="57"/>
+    </row>
+    <row r="116" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="44"/>
+      <c r="B116" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-      <c r="K116" s="44"/>
-      <c r="L116" s="19" t="s">
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="157" t="s">
+      <c r="M116" s="59"/>
+      <c r="N116" s="59"/>
+      <c r="O116" s="59"/>
+      <c r="P116" s="60"/>
+      <c r="Q116" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="R116" s="158"/>
-      <c r="S116" s="158"/>
-      <c r="T116" s="158"/>
-      <c r="U116" s="158"/>
-      <c r="V116" s="158"/>
-      <c r="W116" s="159"/>
-    </row>
-    <row r="117" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
-      <c r="B117" s="140"/>
-      <c r="C117" s="141"/>
-      <c r="D117" s="142"/>
-      <c r="E117" s="19" t="s">
+      <c r="R116" s="53"/>
+      <c r="S116" s="53"/>
+      <c r="T116" s="53"/>
+      <c r="U116" s="53"/>
+      <c r="V116" s="53"/>
+      <c r="W116" s="54"/>
+    </row>
+    <row r="117" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="44"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="20"/>
-      <c r="O117" s="20"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="160"/>
-      <c r="R117" s="161"/>
-      <c r="S117" s="161"/>
-      <c r="T117" s="161"/>
-      <c r="U117" s="161"/>
-      <c r="V117" s="161"/>
-      <c r="W117" s="162"/>
-    </row>
-    <row r="118" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
-      <c r="B118" s="49" t="s">
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="N117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="60"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="56"/>
+      <c r="T117" s="56"/>
+      <c r="U117" s="56"/>
+      <c r="V117" s="56"/>
+      <c r="W117" s="57"/>
+    </row>
+    <row r="118" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="44"/>
+      <c r="B118" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C118" s="50"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="19" t="s">
+      <c r="C118" s="41"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="52" t="s">
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="60"/>
+      <c r="Q118" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="R118" s="53"/>
-      <c r="S118" s="53"/>
-      <c r="T118" s="53"/>
-      <c r="U118" s="53"/>
-      <c r="V118" s="53"/>
-      <c r="W118" s="54"/>
-    </row>
-    <row r="119" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="49" t="s">
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="30"/>
+    </row>
+    <row r="119" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="44"/>
+      <c r="B119" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="50"/>
-      <c r="M119" s="50"/>
-      <c r="N119" s="50"/>
-      <c r="O119" s="50"/>
-      <c r="P119" s="51"/>
-      <c r="Q119" s="52" t="s">
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="R119" s="53"/>
-      <c r="S119" s="53"/>
-      <c r="T119" s="53"/>
-      <c r="U119" s="53"/>
-      <c r="V119" s="53"/>
-      <c r="W119" s="54"/>
-    </row>
-    <row r="120" spans="1:23" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="B120" s="45" t="s">
+      <c r="R119" s="29"/>
+      <c r="S119" s="29"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="30"/>
+    </row>
+    <row r="120" spans="1:23" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="45"/>
+      <c r="B120" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="47"/>
-      <c r="Q120" s="52" t="s">
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="R120" s="53"/>
-      <c r="S120" s="53"/>
-      <c r="T120" s="53"/>
-      <c r="U120" s="53"/>
-      <c r="V120" s="53"/>
-      <c r="W120" s="54"/>
-    </row>
-    <row r="121" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
+      <c r="R120" s="29"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="29"/>
+      <c r="U120" s="29"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="30"/>
+    </row>
+    <row r="121" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
-      <c r="Q121" s="37"/>
-      <c r="R121" s="37"/>
-      <c r="S121" s="37"/>
-      <c r="T121" s="37"/>
-      <c r="U121" s="37"/>
-      <c r="V121" s="37"/>
-      <c r="W121" s="38"/>
-    </row>
-    <row r="122" spans="1:23" ht="42.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="163" t="s">
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="38"/>
+      <c r="O121" s="38"/>
+      <c r="P121" s="38"/>
+      <c r="Q121" s="38"/>
+      <c r="R121" s="38"/>
+      <c r="S121" s="38"/>
+      <c r="T121" s="38"/>
+      <c r="U121" s="38"/>
+      <c r="V121" s="38"/>
+      <c r="W121" s="39"/>
+    </row>
+    <row r="122" spans="1:23" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B122" s="164"/>
-      <c r="C122" s="164"/>
-      <c r="D122" s="164"/>
-      <c r="E122" s="164"/>
-      <c r="F122" s="164"/>
-      <c r="G122" s="164"/>
-      <c r="H122" s="164"/>
-      <c r="I122" s="164"/>
-      <c r="J122" s="164"/>
-      <c r="K122" s="164"/>
-      <c r="L122" s="164"/>
-      <c r="M122" s="164"/>
-      <c r="N122" s="164"/>
-      <c r="O122" s="164"/>
-      <c r="P122" s="164"/>
-      <c r="Q122" s="164"/>
-      <c r="R122" s="164"/>
-      <c r="S122" s="164"/>
-      <c r="T122" s="164"/>
-      <c r="U122" s="164"/>
-      <c r="V122" s="164"/>
-      <c r="W122" s="165"/>
-    </row>
-    <row r="123" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="36"/>
+    </row>
+    <row r="123" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="50"/>
-      <c r="K123" s="50"/>
-      <c r="L123" s="50"/>
-      <c r="M123" s="50"/>
-      <c r="N123" s="50"/>
-      <c r="O123" s="50"/>
-      <c r="P123" s="51"/>
-      <c r="Q123" s="52" t="s">
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="42"/>
+      <c r="Q123" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="R123" s="53"/>
-      <c r="S123" s="53"/>
-      <c r="T123" s="53"/>
-      <c r="U123" s="53"/>
-      <c r="V123" s="53"/>
-      <c r="W123" s="54"/>
-    </row>
-    <row r="124" spans="1:23" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R123" s="29"/>
+      <c r="S123" s="29"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="29"/>
+      <c r="V123" s="29"/>
+      <c r="W123" s="30"/>
+    </row>
+    <row r="124" spans="1:23" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="47"/>
-      <c r="Q124" s="52" t="s">
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="27"/>
+      <c r="Q124" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="R124" s="53"/>
-      <c r="S124" s="53"/>
-      <c r="T124" s="53"/>
-      <c r="U124" s="53"/>
-      <c r="V124" s="53"/>
-      <c r="W124" s="54"/>
-    </row>
-    <row r="125" spans="1:23" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="30"/>
+    </row>
+    <row r="125" spans="1:23" ht="23.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C125" s="46"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="52" t="s">
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="R125" s="53"/>
-      <c r="S125" s="53"/>
-      <c r="T125" s="53"/>
-      <c r="U125" s="53"/>
-      <c r="V125" s="53"/>
-      <c r="W125" s="54"/>
-    </row>
-    <row r="126" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R125" s="29"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="29"/>
+      <c r="U125" s="29"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="30"/>
+    </row>
+    <row r="126" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
-      <c r="B126" s="45" t="s">
+      <c r="B126" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="52" t="s">
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="R126" s="53"/>
-      <c r="S126" s="53"/>
-      <c r="T126" s="53"/>
-      <c r="U126" s="53"/>
-      <c r="V126" s="53"/>
-      <c r="W126" s="54"/>
-    </row>
-    <row r="127" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R126" s="29"/>
+      <c r="S126" s="29"/>
+      <c r="T126" s="29"/>
+      <c r="U126" s="29"/>
+      <c r="V126" s="29"/>
+      <c r="W126" s="30"/>
+    </row>
+    <row r="127" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="47"/>
-      <c r="Q127" s="52" t="s">
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="R127" s="53"/>
-      <c r="S127" s="53"/>
-      <c r="T127" s="53"/>
-      <c r="U127" s="53"/>
-      <c r="V127" s="53"/>
-      <c r="W127" s="54"/>
-    </row>
-    <row r="128" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="42" t="s">
+      <c r="R127" s="29"/>
+      <c r="S127" s="29"/>
+      <c r="T127" s="29"/>
+      <c r="U127" s="29"/>
+      <c r="V127" s="29"/>
+      <c r="W127" s="30"/>
+    </row>
+    <row r="128" spans="1:23" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
-      <c r="M128" s="43"/>
-      <c r="N128" s="43"/>
-      <c r="O128" s="43"/>
-      <c r="P128" s="43"/>
-      <c r="Q128" s="43"/>
-      <c r="R128" s="43"/>
-      <c r="S128" s="43"/>
-      <c r="T128" s="43"/>
-      <c r="U128" s="43"/>
-      <c r="V128" s="43"/>
-      <c r="W128" s="44"/>
-    </row>
-    <row r="129" spans="1:23" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32"/>
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="32"/>
+      <c r="W128" s="33"/>
+    </row>
+    <row r="129" spans="1:23" ht="34.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="47"/>
-      <c r="Q129" s="52" t="s">
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="R129" s="53"/>
-      <c r="S129" s="53"/>
-      <c r="T129" s="53"/>
-      <c r="U129" s="53"/>
-      <c r="V129" s="53"/>
-      <c r="W129" s="54"/>
-    </row>
-    <row r="130" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="163" t="s">
+      <c r="R129" s="29"/>
+      <c r="S129" s="29"/>
+      <c r="T129" s="29"/>
+      <c r="U129" s="29"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="30"/>
+    </row>
+    <row r="130" spans="1:23" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="164"/>
-      <c r="C130" s="164"/>
-      <c r="D130" s="164"/>
-      <c r="E130" s="164"/>
-      <c r="F130" s="164"/>
-      <c r="G130" s="164"/>
-      <c r="H130" s="164"/>
-      <c r="I130" s="164"/>
-      <c r="J130" s="164"/>
-      <c r="K130" s="164"/>
-      <c r="L130" s="164"/>
-      <c r="M130" s="164"/>
-      <c r="N130" s="164"/>
-      <c r="O130" s="164"/>
-      <c r="P130" s="164"/>
-      <c r="Q130" s="164"/>
-      <c r="R130" s="164"/>
-      <c r="S130" s="164"/>
-      <c r="T130" s="164"/>
-      <c r="U130" s="164"/>
-      <c r="V130" s="164"/>
-      <c r="W130" s="165"/>
-    </row>
-    <row r="131" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="35"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="35"/>
+      <c r="W130" s="36"/>
+    </row>
+    <row r="131" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="47"/>
-      <c r="Q131" s="52" t="s">
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="27"/>
+      <c r="Q131" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="R131" s="53"/>
-      <c r="S131" s="53"/>
-      <c r="T131" s="53"/>
-      <c r="U131" s="53"/>
-      <c r="V131" s="53"/>
-      <c r="W131" s="54"/>
-    </row>
-    <row r="132" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R131" s="29"/>
+      <c r="S131" s="29"/>
+      <c r="T131" s="29"/>
+      <c r="U131" s="29"/>
+      <c r="V131" s="29"/>
+      <c r="W131" s="30"/>
+    </row>
+    <row r="132" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18"/>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="47"/>
-      <c r="Q132" s="52" t="s">
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="26"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="R132" s="53"/>
-      <c r="S132" s="53"/>
-      <c r="T132" s="53"/>
-      <c r="U132" s="53"/>
-      <c r="V132" s="53"/>
-      <c r="W132" s="54"/>
-    </row>
-    <row r="133" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="58" t="s">
+      <c r="R132" s="29"/>
+      <c r="S132" s="29"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="29"/>
+      <c r="V132" s="29"/>
+      <c r="W132" s="30"/>
+    </row>
+    <row r="133" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B133" s="59"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="61" t="s">
+      <c r="B133" s="20"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="62"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="422">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="B127:P127"/>
-    <mergeCell ref="Q127:W127"/>
-    <mergeCell ref="A128:W128"/>
-    <mergeCell ref="B129:P129"/>
-    <mergeCell ref="Q129:W129"/>
-    <mergeCell ref="A130:W130"/>
-    <mergeCell ref="B131:P131"/>
-    <mergeCell ref="Q131:W131"/>
-    <mergeCell ref="B132:P132"/>
-    <mergeCell ref="Q132:W132"/>
-    <mergeCell ref="A121:W121"/>
-    <mergeCell ref="A122:W122"/>
-    <mergeCell ref="B123:P123"/>
-    <mergeCell ref="Q123:W123"/>
-    <mergeCell ref="B124:P124"/>
-    <mergeCell ref="Q124:W124"/>
-    <mergeCell ref="B125:P125"/>
-    <mergeCell ref="Q125:W125"/>
-    <mergeCell ref="B126:P126"/>
-    <mergeCell ref="Q126:W126"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B114:K115"/>
-    <mergeCell ref="L114:P114"/>
-    <mergeCell ref="Q114:W115"/>
-    <mergeCell ref="L115:P115"/>
-    <mergeCell ref="B116:K116"/>
-    <mergeCell ref="L116:P116"/>
-    <mergeCell ref="Q116:W117"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:P117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="E118:P118"/>
-    <mergeCell ref="Q118:W118"/>
-    <mergeCell ref="B119:P119"/>
-    <mergeCell ref="Q119:W119"/>
-    <mergeCell ref="B120:P120"/>
-    <mergeCell ref="Q120:W120"/>
-    <mergeCell ref="A110:W110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:P111"/>
-    <mergeCell ref="Q111:T111"/>
-    <mergeCell ref="U111:W111"/>
-    <mergeCell ref="B112:P112"/>
-    <mergeCell ref="Q112:T112"/>
-    <mergeCell ref="U112:W112"/>
-    <mergeCell ref="A113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:P106"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="U106:W106"/>
-    <mergeCell ref="B107:P107"/>
-    <mergeCell ref="Q107:T107"/>
-    <mergeCell ref="U107:W107"/>
-    <mergeCell ref="A108:W108"/>
-    <mergeCell ref="B109:P109"/>
-    <mergeCell ref="Q109:T109"/>
-    <mergeCell ref="U109:W109"/>
-    <mergeCell ref="A101:W101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:P102"/>
-    <mergeCell ref="Q102:T102"/>
-    <mergeCell ref="U102:W102"/>
-    <mergeCell ref="B103:P103"/>
-    <mergeCell ref="Q103:T103"/>
-    <mergeCell ref="U103:W103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:P104"/>
-    <mergeCell ref="Q104:T104"/>
-    <mergeCell ref="U104:W104"/>
-    <mergeCell ref="B105:P105"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="U105:W105"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="A31:A47"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="B37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="B40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B41:I42"/>
+    <mergeCell ref="J41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="B43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="B44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="B45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="A48:W48"/>
+    <mergeCell ref="A49:W49"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:W50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="Q51:W58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A61:W61"/>
+    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q62:W62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:W70"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A74:W74"/>
+    <mergeCell ref="A75:A85"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="Q75:W75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="Q76:W83"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:P95"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="U95:W95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="Q84:W84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="Q85:W85"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="A87:P88"/>
+    <mergeCell ref="Q87:T87"/>
+    <mergeCell ref="U87:W87"/>
+    <mergeCell ref="Q88:T88"/>
+    <mergeCell ref="U88:W88"/>
+    <mergeCell ref="B92:P92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="U92:W92"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="Q93:T93"/>
+    <mergeCell ref="U93:W93"/>
+    <mergeCell ref="B94:P94"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="U94:W94"/>
     <mergeCell ref="H96:P96"/>
     <mergeCell ref="Q96:T96"/>
     <mergeCell ref="U96:W96"/>
@@ -10297,328 +10543,82 @@
     <mergeCell ref="B91:P91"/>
     <mergeCell ref="Q91:T91"/>
     <mergeCell ref="U91:W91"/>
-    <mergeCell ref="B92:P92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="U92:W92"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="Q93:T93"/>
-    <mergeCell ref="U93:W93"/>
-    <mergeCell ref="B94:P94"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="U94:W94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:P95"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="U95:W95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="Q84:W84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="Q85:W85"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="A87:P88"/>
-    <mergeCell ref="Q87:T87"/>
-    <mergeCell ref="U87:W87"/>
-    <mergeCell ref="Q88:T88"/>
-    <mergeCell ref="U88:W88"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A74:W74"/>
-    <mergeCell ref="A75:A85"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="Q75:W75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="Q76:W83"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A61:W61"/>
-    <mergeCell ref="A62:A72"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:W62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:W70"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:W50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="Q51:W58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="B47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="A48:W48"/>
-    <mergeCell ref="A49:W49"/>
-    <mergeCell ref="B43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="B44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="B45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B41:I42"/>
-    <mergeCell ref="J41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="J42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="B37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="B39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="A31:A47"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="B35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A101:W101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:P102"/>
+    <mergeCell ref="Q102:T102"/>
+    <mergeCell ref="U102:W102"/>
+    <mergeCell ref="B103:P103"/>
+    <mergeCell ref="Q103:T103"/>
+    <mergeCell ref="U103:W103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:P104"/>
+    <mergeCell ref="Q104:T104"/>
+    <mergeCell ref="U104:W104"/>
+    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="U105:W105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:P106"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="U106:W106"/>
+    <mergeCell ref="B107:P107"/>
+    <mergeCell ref="Q107:T107"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="A108:W108"/>
+    <mergeCell ref="B109:P109"/>
+    <mergeCell ref="Q109:T109"/>
+    <mergeCell ref="U109:W109"/>
+    <mergeCell ref="A110:W110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:P111"/>
+    <mergeCell ref="Q111:T111"/>
+    <mergeCell ref="U111:W111"/>
+    <mergeCell ref="B112:P112"/>
+    <mergeCell ref="Q112:T112"/>
+    <mergeCell ref="U112:W112"/>
+    <mergeCell ref="A113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B114:K115"/>
+    <mergeCell ref="L114:P114"/>
+    <mergeCell ref="Q114:W115"/>
+    <mergeCell ref="L115:P115"/>
+    <mergeCell ref="B116:K116"/>
+    <mergeCell ref="L116:P116"/>
+    <mergeCell ref="Q116:W117"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:P117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:P118"/>
+    <mergeCell ref="Q118:W118"/>
+    <mergeCell ref="B119:P119"/>
+    <mergeCell ref="Q119:W119"/>
+    <mergeCell ref="B120:P120"/>
+    <mergeCell ref="Q120:W120"/>
+    <mergeCell ref="A121:W121"/>
+    <mergeCell ref="A122:W122"/>
+    <mergeCell ref="B123:P123"/>
+    <mergeCell ref="Q123:W123"/>
+    <mergeCell ref="B124:P124"/>
+    <mergeCell ref="Q124:W124"/>
+    <mergeCell ref="B125:P125"/>
+    <mergeCell ref="Q125:W125"/>
+    <mergeCell ref="B126:P126"/>
+    <mergeCell ref="Q126:W126"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="B127:P127"/>
+    <mergeCell ref="Q127:W127"/>
+    <mergeCell ref="A128:W128"/>
+    <mergeCell ref="B129:P129"/>
+    <mergeCell ref="Q129:W129"/>
+    <mergeCell ref="A130:W130"/>
+    <mergeCell ref="B131:P131"/>
+    <mergeCell ref="Q131:W131"/>
+    <mergeCell ref="B132:P132"/>
+    <mergeCell ref="Q132:W132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
